--- a/Assignment2/comparison data.xlsx
+++ b/Assignment2/comparison data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakashraman/Documents/AI/AI520/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A654E8-34DF-3A40-92FB-C5BDBC9A505F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533B305-510D-D141-AD08-867CDF4BE816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2420" windowWidth="28040" windowHeight="17440" xr2:uid="{5E13E1C6-3890-A647-853D-ED8F0BA04CB5}"/>
+    <workbookView xWindow="2140" yWindow="2400" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{5E13E1C6-3890-A647-853D-ED8F0BA04CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline vs Lin Alg" sheetId="1" r:id="rId1"/>
     <sheet name="Baseline vs Brute no lin alg" sheetId="3" r:id="rId2"/>
     <sheet name="Lin alg vs Lin alg + brute" sheetId="4" r:id="rId3"/>
     <sheet name="Lin alg vs Brute no lin alg" sheetId="7" r:id="rId4"/>
+    <sheet name="baseline vs Lin alg + brute" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Dim</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Brute Time</t>
+  </si>
+  <si>
+    <t>Baseline time</t>
   </si>
 </sst>
 </file>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1083EC09-762A-2340-93AE-5AB14A870F7E}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,6 +743,18 @@
       <c r="B20">
         <v>0.3</v>
       </c>
+      <c r="C20">
+        <v>4.97</v>
+      </c>
+      <c r="D20">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="E20">
+        <v>81.3</v>
+      </c>
+      <c r="F20">
+        <v>88.1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -747,61 +763,17 @@
       <c r="B21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0.1</v>
-      </c>
-      <c r="C23">
-        <v>0.35</v>
-      </c>
-      <c r="D23">
-        <v>1.84</v>
-      </c>
-      <c r="E23">
-        <v>99.8</v>
-      </c>
-      <c r="F23">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0.2</v>
-      </c>
-      <c r="C24">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="D24">
-        <v>10.9</v>
-      </c>
-      <c r="E24">
-        <v>97.3</v>
-      </c>
-      <c r="F24">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
+      <c r="C21">
+        <v>6.7</v>
+      </c>
+      <c r="D21">
+        <v>272.91000000000003</v>
+      </c>
+      <c r="E21">
+        <v>56.6</v>
+      </c>
+      <c r="F21">
+        <v>60.1</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743FC86A-D264-E044-87A9-90B61A7CA3D2}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,6 +901,18 @@
       <c r="B8">
         <v>0.1</v>
       </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.11</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -937,6 +921,18 @@
       <c r="B9">
         <v>0.2</v>
       </c>
+      <c r="C9">
+        <v>0.18</v>
+      </c>
+      <c r="D9">
+        <v>3.52</v>
+      </c>
+      <c r="E9">
+        <v>93.6</v>
+      </c>
+      <c r="F9">
+        <v>94.7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -945,6 +941,18 @@
       <c r="B10">
         <v>0.3</v>
       </c>
+      <c r="C10">
+        <v>0.41</v>
+      </c>
+      <c r="D10">
+        <v>23.61</v>
+      </c>
+      <c r="E10">
+        <v>77.7</v>
+      </c>
+      <c r="F10">
+        <v>80.7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -953,6 +961,18 @@
       <c r="B11">
         <v>0.5</v>
       </c>
+      <c r="C11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D11">
+        <v>126.75</v>
+      </c>
+      <c r="E11">
+        <v>56.1</v>
+      </c>
+      <c r="F11">
+        <v>63.8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -961,6 +981,18 @@
       <c r="B13">
         <v>0.1</v>
       </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>0.22</v>
+      </c>
+      <c r="E13">
+        <v>99.6</v>
+      </c>
+      <c r="F13">
+        <v>99.6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -969,6 +1001,18 @@
       <c r="B14">
         <v>0.2</v>
       </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E14">
+        <v>95.6</v>
+      </c>
+      <c r="F14">
+        <v>95.9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -977,6 +1021,18 @@
       <c r="B15">
         <v>0.3</v>
       </c>
+      <c r="C15">
+        <v>1.85</v>
+      </c>
+      <c r="D15">
+        <v>47.1</v>
+      </c>
+      <c r="E15">
+        <v>78.8</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -985,69 +1041,97 @@
       <c r="B16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>2.8</v>
+      </c>
+      <c r="D16">
+        <v>217.96</v>
+      </c>
+      <c r="E16">
+        <v>57.1</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0.23</v>
+      </c>
+      <c r="D18">
+        <v>0.35</v>
+      </c>
+      <c r="E18">
+        <v>99.7</v>
+      </c>
+      <c r="F18">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
       <c r="B19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>2.19</v>
+      </c>
+      <c r="D19">
+        <v>20.77</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
       <c r="B20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>6.8</v>
+      </c>
+      <c r="D20">
+        <v>157.74</v>
+      </c>
+      <c r="E20">
+        <v>81.7</v>
+      </c>
+      <c r="F20">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40</v>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
+      <c r="C21">
+        <v>8.26</v>
+      </c>
+      <c r="D21">
+        <v>329.06</v>
+      </c>
+      <c r="E21">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>64.8</v>
       </c>
     </row>
   </sheetData>
@@ -1057,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A593776-5A1D-2A4F-BDC0-2225576B759C}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,6 +1239,18 @@
       <c r="B6">
         <v>0.5</v>
       </c>
+      <c r="C6">
+        <v>0.16</v>
+      </c>
+      <c r="D6">
+        <v>14.66</v>
+      </c>
+      <c r="E6">
+        <v>58.3</v>
+      </c>
+      <c r="F6">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1183,6 +1279,18 @@
       <c r="B9">
         <v>0.2</v>
       </c>
+      <c r="C9">
+        <v>0.44</v>
+      </c>
+      <c r="D9">
+        <v>2.98</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>97.5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1191,6 +1299,18 @@
       <c r="B10">
         <v>0.3</v>
       </c>
+      <c r="C10">
+        <v>2.23</v>
+      </c>
+      <c r="D10">
+        <v>25.5</v>
+      </c>
+      <c r="E10">
+        <v>85.7</v>
+      </c>
+      <c r="F10">
+        <v>90.2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1199,6 +1319,18 @@
       <c r="B11">
         <v>0.5</v>
       </c>
+      <c r="C11">
+        <v>6.08</v>
+      </c>
+      <c r="D11">
+        <v>110.58</v>
+      </c>
+      <c r="E11">
+        <v>58.4</v>
+      </c>
+      <c r="F11">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1207,6 +1339,18 @@
       <c r="B13">
         <v>0.1</v>
       </c>
+      <c r="C13">
+        <v>0.41</v>
+      </c>
+      <c r="D13">
+        <v>0.53</v>
+      </c>
+      <c r="E13">
+        <v>99.7</v>
+      </c>
+      <c r="F13">
+        <v>99.7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1215,6 +1359,18 @@
       <c r="B14">
         <v>0.2</v>
       </c>
+      <c r="C14">
+        <v>1.48</v>
+      </c>
+      <c r="D14">
+        <v>2.71</v>
+      </c>
+      <c r="E14">
+        <v>98.3</v>
+      </c>
+      <c r="F14">
+        <v>98.6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1223,6 +1379,18 @@
       <c r="B15">
         <v>0.3</v>
       </c>
+      <c r="C15">
+        <v>17.82</v>
+      </c>
+      <c r="D15">
+        <v>50.1</v>
+      </c>
+      <c r="E15">
+        <v>88.1</v>
+      </c>
+      <c r="F15">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1231,69 +1399,97 @@
       <c r="B16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>59.15</v>
+      </c>
+      <c r="D16">
+        <v>192.99</v>
+      </c>
+      <c r="E16">
+        <v>59.4</v>
+      </c>
+      <c r="F16">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1.04</v>
+      </c>
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>99.8</v>
+      </c>
+      <c r="F18">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
       <c r="B19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>4.74</v>
+      </c>
+      <c r="D19">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E19">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
       <c r="B20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="D20">
+        <v>161.65</v>
+      </c>
+      <c r="E20">
+        <v>88</v>
+      </c>
+      <c r="F20">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40</v>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
+      <c r="C21">
+        <v>332.41</v>
+      </c>
+      <c r="D21">
+        <v>401.66</v>
+      </c>
+      <c r="E21">
+        <v>59.7</v>
+      </c>
+      <c r="F21">
+        <v>70.599999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1303,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C83F240-BE21-524F-91A3-567086B13205}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,6 +1537,18 @@
       <c r="B3">
         <v>0.1</v>
       </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.08</v>
+      </c>
+      <c r="E3">
+        <v>97.8</v>
+      </c>
+      <c r="F3">
+        <v>96.9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1349,6 +1557,18 @@
       <c r="B4">
         <v>0.2</v>
       </c>
+      <c r="C4">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>1.74</v>
+      </c>
+      <c r="E4">
+        <v>91.7</v>
+      </c>
+      <c r="F4">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1357,6 +1577,18 @@
       <c r="B5">
         <v>0.3</v>
       </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E5">
+        <v>79.5</v>
+      </c>
+      <c r="F5">
+        <v>79.7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1365,6 +1597,18 @@
       <c r="B6">
         <v>0.5</v>
       </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="D6">
+        <v>41.66</v>
+      </c>
+      <c r="E6">
+        <v>57.3</v>
+      </c>
+      <c r="F6">
+        <v>64.8</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1373,6 +1617,18 @@
       <c r="B8">
         <v>0.1</v>
       </c>
+      <c r="C8">
+        <v>0.09</v>
+      </c>
+      <c r="D8">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <v>99.4</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1381,6 +1637,18 @@
       <c r="B9">
         <v>0.2</v>
       </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9">
+        <v>3.65</v>
+      </c>
+      <c r="E9">
+        <v>97.8</v>
+      </c>
+      <c r="F9">
+        <v>95.1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1405,6 +1673,18 @@
       <c r="B13">
         <v>0.1</v>
       </c>
+      <c r="C13">
+        <v>0.42</v>
+      </c>
+      <c r="D13">
+        <v>0.24</v>
+      </c>
+      <c r="E13">
+        <v>99.7</v>
+      </c>
+      <c r="F13">
+        <v>99.6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1413,6 +1693,18 @@
       <c r="B14">
         <v>0.2</v>
       </c>
+      <c r="C14">
+        <v>1.64</v>
+      </c>
+      <c r="D14">
+        <v>9.5</v>
+      </c>
+      <c r="E14">
+        <v>98.6</v>
+      </c>
+      <c r="F14">
+        <v>96.2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1430,23 +1722,47 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.43</v>
+      </c>
+      <c r="E18">
+        <v>99.8</v>
+      </c>
+      <c r="F18">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
       <c r="B19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>3.81</v>
+      </c>
+      <c r="D19">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E19">
+        <v>99.1</v>
+      </c>
+      <c r="F19">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
@@ -1454,7 +1770,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1462,35 +1778,290 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AE4776-3A87-3640-9381-E275F1D41EDB}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
+        <v>96.5</v>
+      </c>
+      <c r="F3">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>1.66</v>
+      </c>
+      <c r="E4">
+        <v>86.9</v>
+      </c>
+      <c r="F4">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>7.17</v>
+      </c>
+      <c r="E5">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F5">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>18.73</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.17</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.21</v>
+      </c>
+      <c r="D9">
+        <v>5.68</v>
+      </c>
+      <c r="E9">
+        <v>93.2</v>
+      </c>
+      <c r="F9">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.13</v>
+      </c>
+      <c r="D13">
+        <v>0.81</v>
+      </c>
+      <c r="E13">
+        <v>99.5</v>
+      </c>
+      <c r="F13">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.77</v>
+      </c>
+      <c r="D14">
+        <v>6.32</v>
+      </c>
+      <c r="E14">
+        <v>95.6</v>
+      </c>
+      <c r="F14">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D18">
+        <v>2.14</v>
+      </c>
+      <c r="E18">
+        <v>99.7</v>
+      </c>
+      <c r="F18">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>2.08</v>
+      </c>
+      <c r="D19">
+        <v>6.41</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
         <v>0.5</v>
       </c>
     </row>
